--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -3,7 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Отчет" sheetId="1" r:id="rId1"/>
+    <sheet name="Основная информация" sheetId="1" r:id="rId1"/>
+    <sheet name="Дополнительная информация по ре" sheetId="2" r:id="rId2"/>
+    <sheet name="Информация по запросам" sheetId="3" r:id="rId3"/>
+    <sheet name="Дополнительная информация по ср" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -416,16 +419,16 @@
         <v>Почта</v>
       </c>
       <c r="E1" t="str">
-        <v>Запросы</v>
+        <v>Номер_запроса</v>
       </c>
       <c r="F1" t="str">
+        <v>Адреса_объектов_недвижимости</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Назначение_объекта</v>
+      </c>
+      <c r="H1" t="str">
         <v>Стоимость</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Цель_запроса</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Номер_запроса</v>
       </c>
     </row>
     <row r="2">
@@ -441,7 +444,7 @@
       <c r="D2" t="str">
         <v>d</v>
       </c>
-      <c r="H2" t="str">
+      <c r="E2" t="str">
         <v>fff</v>
       </c>
     </row>
@@ -458,7 +461,7 @@
       <c r="D3" t="str">
         <v>d</v>
       </c>
-      <c r="H3" t="str">
+      <c r="E3" t="str">
         <v>12</v>
       </c>
     </row>
@@ -475,7 +478,7 @@
       <c r="D4" t="str">
         <v>d</v>
       </c>
-      <c r="H4" t="str">
+      <c r="E4" t="str">
         <v>1</v>
       </c>
     </row>
@@ -492,7 +495,7 @@
       <c r="D5" t="str">
         <v>d</v>
       </c>
-      <c r="H5" t="str">
+      <c r="E5" t="str">
         <v>7015</v>
       </c>
     </row>
@@ -510,16 +513,16 @@
         <v>d</v>
       </c>
       <c r="E6" t="str">
+        <v>1788</v>
+      </c>
+      <c r="F6" t="str">
         <v>Ленина,1:кв1</v>
-      </c>
-      <c r="F6" t="str">
-        <v>1000</v>
       </c>
       <c r="G6" t="str">
         <v>Продажа</v>
       </c>
       <c r="H6" t="str">
-        <v>1788</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -535,7 +538,7 @@
       <c r="D7" t="str">
         <v>bcd</v>
       </c>
-      <c r="H7" t="str">
+      <c r="E7" t="str">
         <v>8585</v>
       </c>
     </row>
@@ -552,7 +555,7 @@
       <c r="D8" t="str">
         <v>bcd</v>
       </c>
-      <c r="H8" t="str">
+      <c r="E8" t="str">
         <v>6799</v>
       </c>
     </row>
@@ -570,7 +573,7 @@
         <v>qwe</v>
       </c>
       <c r="E9" t="str">
-        <v>1</v>
+        <v>2380</v>
       </c>
       <c r="F9" t="str">
         <v>1</v>
@@ -579,7 +582,7 @@
         <v>Продажа</v>
       </c>
       <c r="H9" t="str">
-        <v>2380</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -595,7 +598,7 @@
       <c r="D10" t="str">
         <v>df</v>
       </c>
-      <c r="H10" t="str">
+      <c r="E10" t="str">
         <v>3825</v>
       </c>
     </row>
@@ -613,16 +616,16 @@
         <v>ivanov</v>
       </c>
       <c r="E11" t="str">
+        <v>7069</v>
+      </c>
+      <c r="F11" t="str">
         <v>fff</v>
-      </c>
-      <c r="F11" t="str">
-        <v>1</v>
       </c>
       <c r="G11" t="str">
         <v>Аренда</v>
       </c>
       <c r="H11" t="str">
-        <v>7069</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -639,16 +642,16 @@
         <v>petrov</v>
       </c>
       <c r="E12" t="str">
+        <v>8989</v>
+      </c>
+      <c r="F12" t="str">
         <v>fff</v>
-      </c>
-      <c r="F12" t="str">
-        <v>1</v>
       </c>
       <c r="G12" t="str">
         <v>Аренда</v>
       </c>
       <c r="H12" t="str">
-        <v>8989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -665,16 +668,16 @@
         <v>ivanov</v>
       </c>
       <c r="E13" t="str">
+        <v>3193</v>
+      </c>
+      <c r="F13" t="str">
         <v>fff</v>
-      </c>
-      <c r="F13" t="str">
-        <v>1</v>
       </c>
       <c r="G13" t="str">
         <v>Аренда</v>
       </c>
       <c r="H13" t="str">
-        <v>3193</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -682,4 +685,209 @@
     <ignoredError numberStoredAsText="1" sqref="A1:H13"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Количество_пользователей</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Начало</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Конец</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2</v>
+      </c>
+      <c r="B2" t="str">
+        <v>2024-12-02</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2024-12-30</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Статус_запроса</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Количество</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Начало</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Конец</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>В обработке</v>
+      </c>
+      <c r="B2" t="str">
+        <v>6</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2024-12-02</v>
+      </c>
+      <c r="D2" t="str">
+        <v>2024-12-30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Закончен</v>
+      </c>
+      <c r="B3" t="str">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2024-12-02</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2024-12-30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Закрыт</v>
+      </c>
+      <c r="B4" t="str">
+        <v>5</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2024-12-02</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2024-12-30</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Идентификатор_клиента</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Имя_клиента</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Фамилия_клиента</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Отчество_клиента</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Средняя_стоимость</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>b</v>
+      </c>
+      <c r="C2" t="str">
+        <v>a</v>
+      </c>
+      <c r="D2" t="str">
+        <v>c</v>
+      </c>
+      <c r="E2" t="str">
+        <v>1000.0000000000000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3" t="str">
+        <v>qwe</v>
+      </c>
+      <c r="C3" t="str">
+        <v>qwe</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v>1.00000000000000000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="str">
+        <v>ivanov</v>
+      </c>
+      <c r="C4" t="str">
+        <v>ivanov</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>1.00000000000000000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5" t="str">
+        <v>petrov</v>
+      </c>
+      <c r="C5" t="str">
+        <v>petrov</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v>1.00000000000000000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
+  </ignoredErrors>
+</worksheet>
 </file>